--- a/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data2.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data2.xlsx
@@ -430,13 +430,13 @@
         <v>60.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03662951375922926</v>
+        <v>0.03674535170374907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10107620409688729</v>
+        <v>0.10163711264226842</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6947068133434196E-4</v>
+        <v>1.7064406969650553E-4</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>120.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.053615483528080154</v>
+        <v>0.05360243206890705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.27117372671184514</v>
+        <v>0.27242269096401406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002656393547112709</v>
+        <v>0.002672763415232455</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,13 @@
         <v>300.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04055305458921344</v>
+        <v>0.040225354114032434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3607036933664488</v>
+        <v>0.3619763411377589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04583377100646226</v>
+        <v>0.04607826848504598</v>
       </c>
     </row>
     <row r="6">
@@ -472,13 +472,13 @@
         <v>600.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01949430536518961</v>
+        <v>0.019099773749792225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2663746842830641</v>
+        <v>0.2663355482070525</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20960751399445013</v>
+        <v>0.21054039703114397</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +486,13 @@
         <v>900.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.009385759874781276</v>
+        <v>0.00907132055927777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19524873887973576</v>
+        <v>0.19463969328075428</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4007484657083404</v>
+        <v>0.40210176196550146</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +500,13 @@
         <v>1800.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001138774999851408</v>
+        <v>0.0010279533459630608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10068426684791511</v>
+        <v>0.10058557457243177</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7556316274099285</v>
+        <v>0.7563832443065277</v>
       </c>
     </row>
     <row r="9">
@@ -514,13 +514,13 @@
         <v>3600.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.39324221427068E-4</v>
+        <v>8.793499175515778E-5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04743577356832522</v>
+        <v>0.04764261463356785</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6612775029109359</v>
+        <v>0.6621815979771035</v>
       </c>
     </row>
   </sheetData>
